--- a/Code/Results/Cases/Case_0_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_128/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.536981345730808</v>
+        <v>3.784847922304403</v>
       </c>
       <c r="D2">
-        <v>3.667248728479593</v>
+        <v>5.796719687976238</v>
       </c>
       <c r="E2">
-        <v>30.1756934101859</v>
+        <v>16.38720235206056</v>
       </c>
       <c r="F2">
-        <v>36.67923451253861</v>
+        <v>33.55865001938667</v>
       </c>
       <c r="G2">
-        <v>2.039372740391334</v>
+        <v>3.650290300328177</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.23418180494991</v>
+        <v>26.88740059086754</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.76115965199847</v>
+        <v>17.42989743432324</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.631723688669264</v>
+        <v>3.799629425692091</v>
       </c>
       <c r="D3">
-        <v>3.772465067280649</v>
+        <v>5.833119516102507</v>
       </c>
       <c r="E3">
-        <v>27.84755110411241</v>
+        <v>15.45865195472895</v>
       </c>
       <c r="F3">
-        <v>34.61876446509604</v>
+        <v>33.19484747894594</v>
       </c>
       <c r="G3">
-        <v>2.053693016261551</v>
+        <v>3.65483810704638</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.83614297053003</v>
+        <v>26.68623000071315</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.9186144162825</v>
+        <v>16.84985517754088</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.688826813913875</v>
+        <v>3.808949167604261</v>
       </c>
       <c r="D4">
-        <v>3.842216116461235</v>
+        <v>5.856678235087072</v>
       </c>
       <c r="E4">
-        <v>26.36788729090635</v>
+        <v>14.86532166218271</v>
       </c>
       <c r="F4">
-        <v>33.3613756258331</v>
+        <v>32.98322634845277</v>
       </c>
       <c r="G4">
-        <v>2.062576594783653</v>
+        <v>3.657766917033645</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.99084644309402</v>
+        <v>26.57223929796014</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.73452369982989</v>
+        <v>16.48849135332275</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.711899086919407</v>
+        <v>3.812809295026679</v>
       </c>
       <c r="D5">
-        <v>3.871766545431936</v>
+        <v>5.866581123260649</v>
       </c>
       <c r="E5">
-        <v>25.75146262939908</v>
+        <v>14.61797518427169</v>
       </c>
       <c r="F5">
-        <v>32.85099540947009</v>
+        <v>32.90002114749419</v>
       </c>
       <c r="G5">
-        <v>2.066226159838242</v>
+        <v>3.658994902227736</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.64968072538774</v>
+        <v>26.52820936731557</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.23834044681185</v>
+        <v>16.34017310499777</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.715720188691138</v>
+        <v>3.813454053975435</v>
       </c>
       <c r="D6">
-        <v>3.876737156856026</v>
+        <v>5.868243718807118</v>
       </c>
       <c r="E6">
-        <v>25.64827102912771</v>
+        <v>14.57657674647269</v>
       </c>
       <c r="F6">
-        <v>32.76637409579494</v>
+        <v>32.88639018084887</v>
       </c>
       <c r="G6">
-        <v>2.066834122773309</v>
+        <v>3.659200894981202</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.59323170300807</v>
+        <v>26.52104517899729</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.15511413175433</v>
+        <v>16.31548870949582</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.689138687731605</v>
+        <v>3.809000973305247</v>
       </c>
       <c r="D7">
-        <v>3.842610279607244</v>
+        <v>5.856810565946612</v>
       </c>
       <c r="E7">
-        <v>26.35962945659637</v>
+        <v>14.86200797134626</v>
       </c>
       <c r="F7">
-        <v>33.35448408558469</v>
+        <v>32.98209184252202</v>
       </c>
       <c r="G7">
-        <v>2.062625686782234</v>
+        <v>3.657783338281047</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.98623192538951</v>
+        <v>26.57163565708387</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.72788778062178</v>
+        <v>16.48649502485138</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.569916201590857</v>
+        <v>3.789894543453246</v>
       </c>
       <c r="D8">
-        <v>3.70234557673941</v>
+        <v>5.809018475297631</v>
       </c>
       <c r="E8">
-        <v>29.38282812643806</v>
+        <v>16.07200089003937</v>
       </c>
       <c r="F8">
-        <v>35.96716122037626</v>
+        <v>33.43081938650808</v>
       </c>
       <c r="G8">
-        <v>2.044295739131854</v>
+        <v>3.651830164715429</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.74938655406027</v>
+        <v>26.81607659583805</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>25.13655245749381</v>
+        <v>17.23112657326453</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.323847690382271</v>
+        <v>3.754318751666946</v>
       </c>
       <c r="D9">
-        <v>3.478109156017917</v>
+        <v>5.724962018546624</v>
       </c>
       <c r="E9">
-        <v>34.95748870789838</v>
+        <v>18.30560928909695</v>
       </c>
       <c r="F9">
-        <v>41.15976578974293</v>
+        <v>34.40030607389581</v>
       </c>
       <c r="G9">
-        <v>2.008723569218155</v>
+        <v>3.641231127863898</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.31750995004424</v>
+        <v>27.36962459452522</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>29.46147368292664</v>
+        <v>18.63988446051064</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.129123671095783</v>
+        <v>3.729274516852853</v>
       </c>
       <c r="D10">
-        <v>3.363084217533484</v>
+        <v>5.669197526668874</v>
       </c>
       <c r="E10">
-        <v>38.91316254034167</v>
+        <v>19.95444453653997</v>
       </c>
       <c r="F10">
-        <v>45.17759176429998</v>
+        <v>35.16168885456626</v>
       </c>
       <c r="G10">
-        <v>1.982227939498609</v>
+        <v>3.634088951452947</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.18975939093078</v>
+        <v>27.81932014349094</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>32.42937082997248</v>
+        <v>19.63144458298508</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.035622991646977</v>
+        <v>3.718105716344747</v>
       </c>
       <c r="D11">
-        <v>3.327536779074713</v>
+        <v>5.645153558862271</v>
       </c>
       <c r="E11">
-        <v>40.70471564979473</v>
+        <v>20.663495547452</v>
       </c>
       <c r="F11">
-        <v>47.11494266831085</v>
+        <v>35.51744673759044</v>
       </c>
       <c r="G11">
-        <v>1.969925382400969</v>
+        <v>3.630977570341351</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.65220986869519</v>
+        <v>28.03266708697132</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.74343819129081</v>
+        <v>20.07094073183759</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.999304113677049</v>
+        <v>3.713907564387597</v>
       </c>
       <c r="D12">
-        <v>3.317161223579907</v>
+        <v>5.636241255651356</v>
       </c>
       <c r="E12">
-        <v>41.38447322864607</v>
+        <v>20.92613924090021</v>
       </c>
       <c r="F12">
-        <v>47.85203435944849</v>
+        <v>35.65340249357591</v>
       </c>
       <c r="G12">
-        <v>1.965212364648485</v>
+        <v>3.629818985647319</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.20808178247703</v>
+        <v>28.11466471316845</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>34.23685753232042</v>
+        <v>20.2355489957937</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.007170403277864</v>
+        <v>3.714810338046296</v>
       </c>
       <c r="D13">
-        <v>3.319246076869654</v>
+        <v>5.63815207456408</v>
       </c>
       <c r="E13">
-        <v>41.23796936329007</v>
+        <v>20.86983416232317</v>
       </c>
       <c r="F13">
-        <v>47.69309985263936</v>
+        <v>35.62406876507232</v>
       </c>
       <c r="G13">
-        <v>1.966230154897062</v>
+        <v>3.630067637244158</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.08824576653578</v>
+        <v>28.09695224244784</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>34.13075885096201</v>
+        <v>20.20018086801851</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.032654647798505</v>
+        <v>3.717759711541064</v>
       </c>
       <c r="D14">
-        <v>3.326616899212113</v>
+        <v>5.644416464203025</v>
       </c>
       <c r="E14">
-        <v>40.76059644157344</v>
+        <v>20.68522059283086</v>
       </c>
       <c r="F14">
-        <v>47.17550199523096</v>
+        <v>35.52860774852147</v>
       </c>
       <c r="G14">
-        <v>1.969538849589912</v>
+        <v>3.630881860448755</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.69789071435878</v>
+        <v>28.03938919895167</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.78410954533538</v>
+        <v>20.08452044427416</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.04813877149554</v>
+        <v>3.719570326151161</v>
       </c>
       <c r="D15">
-        <v>3.331556313901324</v>
+        <v>5.648278739610205</v>
       </c>
       <c r="E15">
-        <v>40.46845011263107</v>
+        <v>20.57137765270701</v>
       </c>
       <c r="F15">
-        <v>46.8589717896742</v>
+        <v>35.47029292283133</v>
       </c>
       <c r="G15">
-        <v>1.971557825507155</v>
+        <v>3.631383146934049</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.4591056367222</v>
+        <v>28.00428578797979</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>33.57126462890756</v>
+        <v>20.0134338421541</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.135118736887805</v>
+        <v>3.730008847509699</v>
       </c>
       <c r="D16">
-        <v>3.365798839808072</v>
+        <v>5.670795683703427</v>
       </c>
       <c r="E16">
-        <v>38.79611843047708</v>
+        <v>19.90728444668572</v>
       </c>
       <c r="F16">
-        <v>45.05135511789963</v>
+        <v>35.13861872954842</v>
       </c>
       <c r="G16">
-        <v>1.983025441480825</v>
+        <v>3.634295043058648</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.09438974440604</v>
+        <v>27.80554947126285</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>32.34284810351154</v>
+        <v>19.602475944519</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.187086823825569</v>
+        <v>3.736469209027735</v>
       </c>
       <c r="D17">
-        <v>3.391532405640873</v>
+        <v>5.684949693718655</v>
       </c>
       <c r="E17">
-        <v>37.7697425926013</v>
+        <v>19.48940829062596</v>
       </c>
       <c r="F17">
-        <v>43.94651311991108</v>
+        <v>34.93747491913466</v>
       </c>
       <c r="G17">
-        <v>1.989984730348109</v>
+        <v>3.636116531505537</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.2592568823702</v>
+        <v>27.685841731373</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>31.58066303141493</v>
+        <v>19.34728678917347</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.216529111677904</v>
+        <v>3.740206175423804</v>
       </c>
       <c r="D18">
-        <v>3.407863887208934</v>
+        <v>5.693215142455238</v>
       </c>
       <c r="E18">
-        <v>37.17847541492946</v>
+        <v>19.24519436896253</v>
       </c>
       <c r="F18">
-        <v>43.32640630979488</v>
+        <v>34.8226741919088</v>
       </c>
       <c r="G18">
-        <v>1.993965359058678</v>
+        <v>3.637177167743481</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.82517068641301</v>
+        <v>27.61781873769042</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>31.13881113632848</v>
+        <v>19.19942787879568</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.226426240329248</v>
+        <v>3.741475107964142</v>
       </c>
       <c r="D19">
-        <v>3.41363831649245</v>
+        <v>5.69603498552843</v>
       </c>
       <c r="E19">
-        <v>36.97805854137803</v>
+        <v>19.16184313536417</v>
       </c>
       <c r="F19">
-        <v>43.12913469553602</v>
+        <v>34.78396124962647</v>
       </c>
       <c r="G19">
-        <v>1.995309817125384</v>
+        <v>3.63753851253774</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.68751890065239</v>
+        <v>27.59493143586587</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.98858606478839</v>
+        <v>19.14918479561407</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.181602470360394</v>
+        <v>3.735779311927027</v>
       </c>
       <c r="D20">
-        <v>3.388630285383029</v>
+        <v>5.683430080259324</v>
       </c>
       <c r="E20">
-        <v>37.87908165185624</v>
+        <v>19.53429140325636</v>
       </c>
       <c r="F20">
-        <v>44.0640156264465</v>
+        <v>34.95879553366493</v>
       </c>
       <c r="G20">
-        <v>1.989246316500058</v>
+        <v>3.635921290380876</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.34811431799476</v>
+        <v>27.69849933533195</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.66215086038633</v>
+        <v>19.3745651602551</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.025195943539907</v>
+        <v>3.716892569231003</v>
       </c>
       <c r="D21">
-        <v>3.324361992831607</v>
+        <v>5.642571214365046</v>
       </c>
       <c r="E21">
-        <v>40.9007532191508</v>
+        <v>20.73960476194316</v>
       </c>
       <c r="F21">
-        <v>47.32742199930276</v>
+        <v>35.55661428296779</v>
       </c>
       <c r="G21">
-        <v>1.968568648875068</v>
+        <v>3.630642171967771</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.81247793765313</v>
+        <v>28.05626453165215</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.88603348256417</v>
+        <v>20.11854324420436</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.917524248296234</v>
+        <v>3.704730571978528</v>
       </c>
       <c r="D22">
-        <v>3.300779774292569</v>
+        <v>5.616991511310514</v>
       </c>
       <c r="E22">
-        <v>42.88504533209417</v>
+        <v>21.49321672800836</v>
       </c>
       <c r="F22">
-        <v>49.48168657185547</v>
+        <v>35.95448515369314</v>
       </c>
       <c r="G22">
-        <v>1.954725945656657</v>
+        <v>3.627306292573123</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.43614800677329</v>
+        <v>28.29709719579904</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.31569339533049</v>
+        <v>20.59411130822647</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.975570840329733</v>
+        <v>3.711205366347627</v>
       </c>
       <c r="D23">
-        <v>3.311413937686196</v>
+        <v>5.630540248199726</v>
       </c>
       <c r="E23">
-        <v>41.8241248967518</v>
+        <v>21.09410987237091</v>
       </c>
       <c r="F23">
-        <v>48.32920221901091</v>
+        <v>35.74151679031458</v>
       </c>
       <c r="G23">
-        <v>1.962151471088885</v>
+        <v>3.62907630712495</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.56779068069886</v>
+        <v>28.1679374252823</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>34.55443995185167</v>
+        <v>20.34131436166265</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.18408328627189</v>
+        <v>3.736091143257445</v>
       </c>
       <c r="D24">
-        <v>3.38993759546251</v>
+        <v>5.684116698611378</v>
       </c>
       <c r="E24">
-        <v>37.82965334720428</v>
+        <v>19.51401212086749</v>
       </c>
       <c r="F24">
-        <v>44.0108908009502</v>
+        <v>34.94915386027638</v>
       </c>
       <c r="G24">
-        <v>1.989580215486706</v>
+        <v>3.63600951702452</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.30794159251562</v>
+        <v>27.69277434108321</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.62532168963537</v>
+        <v>19.3622361701589</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.392321905986911</v>
+        <v>3.763746613713946</v>
       </c>
       <c r="D25">
-        <v>3.531694074234366</v>
+        <v>5.746656958775141</v>
       </c>
       <c r="E25">
-        <v>33.48035415278802</v>
+        <v>17.68354340731637</v>
       </c>
       <c r="F25">
-        <v>39.74561363113887</v>
+        <v>34.12899187240286</v>
       </c>
       <c r="G25">
-        <v>2.018361059752365</v>
+        <v>3.64398443179077</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.33885215793866</v>
+        <v>27.21214316784469</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>28.33102148205398</v>
+        <v>18.26561292029387</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_128/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_128/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.784847922304403</v>
+        <v>2.536981345730673</v>
       </c>
       <c r="D2">
-        <v>5.796719687976238</v>
+        <v>3.667248728479602</v>
       </c>
       <c r="E2">
-        <v>16.38720235206056</v>
+        <v>30.17569341018599</v>
       </c>
       <c r="F2">
-        <v>33.55865001938667</v>
+        <v>36.67923451253859</v>
       </c>
       <c r="G2">
-        <v>3.650290300328177</v>
+        <v>2.039372740391463</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.88740059086754</v>
+        <v>27.23418180494989</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.42989743432324</v>
+        <v>25.76115965199853</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.799629425692091</v>
+        <v>2.631723688669261</v>
       </c>
       <c r="D3">
-        <v>5.833119516102507</v>
+        <v>3.77246506728044</v>
       </c>
       <c r="E3">
-        <v>15.45865195472895</v>
+        <v>27.84755110411262</v>
       </c>
       <c r="F3">
-        <v>33.19484747894594</v>
+        <v>34.61876446509606</v>
       </c>
       <c r="G3">
-        <v>3.65483810704638</v>
+        <v>2.053693016261554</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.68623000071315</v>
+        <v>25.83614297053001</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.84985517754088</v>
+        <v>23.91861441628268</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.808949167604261</v>
+        <v>2.688826813914149</v>
       </c>
       <c r="D4">
-        <v>5.856678235087072</v>
+        <v>3.842216116461576</v>
       </c>
       <c r="E4">
-        <v>14.86532166218271</v>
+        <v>26.36788729090641</v>
       </c>
       <c r="F4">
-        <v>32.98322634845277</v>
+        <v>33.36137562583309</v>
       </c>
       <c r="G4">
-        <v>3.657766917033645</v>
+        <v>2.062576594783523</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.57223929796014</v>
+        <v>24.99084644309407</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.48849135332275</v>
+        <v>22.73452369982977</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.812809295026679</v>
+        <v>2.711899086919003</v>
       </c>
       <c r="D5">
-        <v>5.866581123260649</v>
+        <v>3.871766545431876</v>
       </c>
       <c r="E5">
-        <v>14.61797518427169</v>
+        <v>25.75146262939901</v>
       </c>
       <c r="F5">
-        <v>32.90002114749419</v>
+        <v>32.85099540947</v>
       </c>
       <c r="G5">
-        <v>3.658994902227736</v>
+        <v>2.066226159837978</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.52820936731557</v>
+        <v>24.6496807253877</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.34017310499777</v>
+        <v>22.23834044681193</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.813454053975435</v>
+        <v>2.715720188691138</v>
       </c>
       <c r="D6">
-        <v>5.868243718807118</v>
+        <v>3.876737156856211</v>
       </c>
       <c r="E6">
-        <v>14.57657674647269</v>
+        <v>25.64827102912768</v>
       </c>
       <c r="F6">
-        <v>32.88639018084887</v>
+        <v>32.76637409579502</v>
       </c>
       <c r="G6">
-        <v>3.659200894981202</v>
+        <v>2.066834122773443</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.52104517899729</v>
+        <v>24.59323170300817</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.31548870949582</v>
+        <v>22.15511413175435</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.809000973305247</v>
+        <v>2.689138687731604</v>
       </c>
       <c r="D7">
-        <v>5.856810565946612</v>
+        <v>3.84261027960737</v>
       </c>
       <c r="E7">
-        <v>14.86200797134626</v>
+        <v>26.35962945659638</v>
       </c>
       <c r="F7">
-        <v>32.98209184252202</v>
+        <v>33.35448408558467</v>
       </c>
       <c r="G7">
-        <v>3.657783338281047</v>
+        <v>2.062625686782366</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.57163565708387</v>
+        <v>24.98623192538952</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.48649502485138</v>
+        <v>22.72788778062174</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.789894543453246</v>
+        <v>2.569916201590855</v>
       </c>
       <c r="D8">
-        <v>5.809018475297631</v>
+        <v>3.702345576739345</v>
       </c>
       <c r="E8">
-        <v>16.07200089003937</v>
+        <v>29.38282812643809</v>
       </c>
       <c r="F8">
-        <v>33.43081938650808</v>
+        <v>35.96716122037627</v>
       </c>
       <c r="G8">
-        <v>3.651830164715429</v>
+        <v>2.044295739131457</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.81607659583805</v>
+        <v>26.74938655406025</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.23112657326453</v>
+        <v>25.13655245749383</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.754318751666946</v>
+        <v>2.323847690382535</v>
       </c>
       <c r="D9">
-        <v>5.724962018546624</v>
+        <v>3.478109156018105</v>
       </c>
       <c r="E9">
-        <v>18.30560928909695</v>
+        <v>34.95748870789843</v>
       </c>
       <c r="F9">
-        <v>34.40030607389581</v>
+        <v>41.15976578974303</v>
       </c>
       <c r="G9">
-        <v>3.641231127863898</v>
+        <v>2.008723569218554</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.36962459452522</v>
+        <v>30.31750995004429</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.63988446051064</v>
+        <v>29.46147368292671</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.729274516852853</v>
+        <v>2.12912367109565</v>
       </c>
       <c r="D10">
-        <v>5.669197526668874</v>
+        <v>3.363084217533583</v>
       </c>
       <c r="E10">
-        <v>19.95444453653997</v>
+        <v>38.91316254034172</v>
       </c>
       <c r="F10">
-        <v>35.16168885456626</v>
+        <v>45.17759176429999</v>
       </c>
       <c r="G10">
-        <v>3.634088951452947</v>
+        <v>1.982227939498738</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.81932014349094</v>
+        <v>33.18975939093078</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.63144458298508</v>
+        <v>32.42937082997256</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.718105716344747</v>
+        <v>2.035622991646982</v>
       </c>
       <c r="D11">
-        <v>5.645153558862271</v>
+        <v>3.32753677907467</v>
       </c>
       <c r="E11">
-        <v>20.663495547452</v>
+        <v>40.70471564979447</v>
       </c>
       <c r="F11">
-        <v>35.51744673759044</v>
+        <v>47.11494266831024</v>
       </c>
       <c r="G11">
-        <v>3.630977570341351</v>
+        <v>1.969925382400975</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.03266708697132</v>
+        <v>34.65220986869473</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.07094073183759</v>
+        <v>33.74343819129052</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.713907564387597</v>
+        <v>1.999304113676777</v>
       </c>
       <c r="D12">
-        <v>5.636241255651356</v>
+        <v>3.31716122357996</v>
       </c>
       <c r="E12">
-        <v>20.92613924090021</v>
+        <v>41.38447322864602</v>
       </c>
       <c r="F12">
-        <v>35.65340249357591</v>
+        <v>47.85203435944853</v>
       </c>
       <c r="G12">
-        <v>3.629818985647319</v>
+        <v>1.965212364648617</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.11466471316845</v>
+        <v>35.20808178247703</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.2355489957937</v>
+        <v>34.23685753232034</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.714810338046296</v>
+        <v>2.007170403277878</v>
       </c>
       <c r="D13">
-        <v>5.63815207456408</v>
+        <v>3.319246076869736</v>
       </c>
       <c r="E13">
-        <v>20.86983416232317</v>
+        <v>41.23796936328999</v>
       </c>
       <c r="F13">
-        <v>35.62406876507232</v>
+        <v>47.69309985263916</v>
       </c>
       <c r="G13">
-        <v>3.630067637244158</v>
+        <v>1.966230154897457</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.09695224244784</v>
+        <v>35.08824576653565</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.20018086801851</v>
+        <v>34.13075885096196</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.717759711541064</v>
+        <v>2.032654647798635</v>
       </c>
       <c r="D14">
-        <v>5.644416464203025</v>
+        <v>3.326616899212155</v>
       </c>
       <c r="E14">
-        <v>20.68522059283086</v>
+        <v>40.76059644157333</v>
       </c>
       <c r="F14">
-        <v>35.52860774852147</v>
+        <v>47.17550199523081</v>
       </c>
       <c r="G14">
-        <v>3.630881860448755</v>
+        <v>1.969538849589639</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.03938919895167</v>
+        <v>34.69789071435866</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.08452044427416</v>
+        <v>33.7841095453353</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.719570326151161</v>
+        <v>2.048138771495934</v>
       </c>
       <c r="D15">
-        <v>5.648278739610205</v>
+        <v>3.331556313901216</v>
       </c>
       <c r="E15">
-        <v>20.57137765270701</v>
+        <v>40.46845011263124</v>
       </c>
       <c r="F15">
-        <v>35.47029292283133</v>
+        <v>46.8589717896745</v>
       </c>
       <c r="G15">
-        <v>3.631383146934049</v>
+        <v>1.97155782550689</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.00428578797979</v>
+        <v>34.45910563672246</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.0134338421541</v>
+        <v>33.57126462890776</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.730008847509699</v>
+        <v>2.135118736887662</v>
       </c>
       <c r="D16">
-        <v>5.670795683703427</v>
+        <v>3.365798839808111</v>
       </c>
       <c r="E16">
-        <v>19.90728444668572</v>
+        <v>38.79611843047694</v>
       </c>
       <c r="F16">
-        <v>35.13861872954842</v>
+        <v>45.0513551178997</v>
       </c>
       <c r="G16">
-        <v>3.634295043058648</v>
+        <v>1.983025441480692</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.80554947126285</v>
+        <v>33.09438974440606</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.602475944519</v>
+        <v>32.34284810351164</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.736469209027735</v>
+        <v>2.187086823825569</v>
       </c>
       <c r="D17">
-        <v>5.684949693718655</v>
+        <v>3.391532405640935</v>
       </c>
       <c r="E17">
-        <v>19.48940829062596</v>
+        <v>37.76974259260128</v>
       </c>
       <c r="F17">
-        <v>34.93747491913466</v>
+        <v>43.94651311991103</v>
       </c>
       <c r="G17">
-        <v>3.636116531505537</v>
+        <v>1.989984730348106</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.685841731373</v>
+        <v>32.25925688237014</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.34728678917347</v>
+        <v>31.58066303141488</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.740206175423804</v>
+        <v>2.216529111677767</v>
       </c>
       <c r="D18">
-        <v>5.693215142455238</v>
+        <v>3.407863887208977</v>
       </c>
       <c r="E18">
-        <v>19.24519436896253</v>
+        <v>37.17847541492944</v>
       </c>
       <c r="F18">
-        <v>34.8226741919088</v>
+        <v>43.32640630979496</v>
       </c>
       <c r="G18">
-        <v>3.637177167743481</v>
+        <v>1.993965359058545</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.61781873769042</v>
+        <v>31.82517068641303</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.19942787879568</v>
+        <v>31.13881113632856</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.741475107964142</v>
+        <v>2.226426240329508</v>
       </c>
       <c r="D19">
-        <v>5.69603498552843</v>
+        <v>3.413638316492295</v>
       </c>
       <c r="E19">
-        <v>19.16184313536417</v>
+        <v>36.97805854137805</v>
       </c>
       <c r="F19">
-        <v>34.78396124962647</v>
+        <v>43.12913469553591</v>
       </c>
       <c r="G19">
-        <v>3.63753851253774</v>
+        <v>1.995309817125517</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.59493143586587</v>
+        <v>31.68751890065227</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.14918479561407</v>
+        <v>30.98858606478842</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.735779311927027</v>
+        <v>2.18160247036052</v>
       </c>
       <c r="D20">
-        <v>5.683430080259324</v>
+        <v>3.388630285383055</v>
       </c>
       <c r="E20">
-        <v>19.53429140325636</v>
+        <v>37.87908165185625</v>
       </c>
       <c r="F20">
-        <v>34.95879553366493</v>
+        <v>44.0640156264467</v>
       </c>
       <c r="G20">
-        <v>3.635921290380876</v>
+        <v>1.989246316499793</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.69849933533195</v>
+        <v>32.34811431799488</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.3745651602551</v>
+        <v>31.6621508603864</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.716892569231003</v>
+        <v>2.025195943539901</v>
       </c>
       <c r="D21">
-        <v>5.642571214365046</v>
+        <v>3.324361992831594</v>
       </c>
       <c r="E21">
-        <v>20.73960476194316</v>
+        <v>40.90075321915094</v>
       </c>
       <c r="F21">
-        <v>35.55661428296779</v>
+        <v>47.32742199930312</v>
       </c>
       <c r="G21">
-        <v>3.630642171967771</v>
+        <v>1.96856864887493</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.05626453165215</v>
+        <v>34.81247793765341</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.11854324420436</v>
+        <v>33.88603348256434</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.704730571978528</v>
+        <v>1.917524248295967</v>
       </c>
       <c r="D22">
-        <v>5.616991511310514</v>
+        <v>3.300779774292522</v>
       </c>
       <c r="E22">
-        <v>21.49321672800836</v>
+        <v>42.88504533209429</v>
       </c>
       <c r="F22">
-        <v>35.95448515369314</v>
+        <v>49.48168657185577</v>
       </c>
       <c r="G22">
-        <v>3.627306292573123</v>
+        <v>1.954725945656663</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.29709719579904</v>
+        <v>36.43614800677349</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.59411130822647</v>
+        <v>35.31569339533054</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.711205366347627</v>
+        <v>1.97557084032987</v>
       </c>
       <c r="D23">
-        <v>5.630540248199726</v>
+        <v>3.311413937686261</v>
       </c>
       <c r="E23">
-        <v>21.09410987237091</v>
+        <v>41.82412489675195</v>
       </c>
       <c r="F23">
-        <v>35.74151679031458</v>
+        <v>48.32920221901102</v>
       </c>
       <c r="G23">
-        <v>3.62907630712495</v>
+        <v>1.962151471088883</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.1679374252823</v>
+        <v>35.56779068069895</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.34131436166265</v>
+        <v>34.55443995185183</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.736091143257445</v>
+        <v>2.184083286271757</v>
       </c>
       <c r="D24">
-        <v>5.684116698611378</v>
+        <v>3.389937595462538</v>
       </c>
       <c r="E24">
-        <v>19.51401212086749</v>
+        <v>37.82965334720424</v>
       </c>
       <c r="F24">
-        <v>34.94915386027638</v>
+        <v>44.01089080095013</v>
       </c>
       <c r="G24">
-        <v>3.63600951702452</v>
+        <v>1.989580215486832</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.69277434108321</v>
+        <v>32.30794159251554</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.3622361701589</v>
+        <v>31.62532168963529</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.763746613713946</v>
+        <v>2.392321905986644</v>
       </c>
       <c r="D25">
-        <v>5.746656958775141</v>
+        <v>3.5316940742344</v>
       </c>
       <c r="E25">
-        <v>17.68354340731637</v>
+        <v>33.48035415278807</v>
       </c>
       <c r="F25">
-        <v>34.12899187240286</v>
+        <v>39.74561363113908</v>
       </c>
       <c r="G25">
-        <v>3.64398443179077</v>
+        <v>2.018361059752236</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.21214316784469</v>
+        <v>29.33885215793881</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.26561292029387</v>
+        <v>28.33102148205414</v>
       </c>
       <c r="L25">
         <v>0</v>
